--- a/data/financial_statements/soci/VTRS.xlsx
+++ b/data/financial_statements/soci/VTRS.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,144 +604,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>4078200000</v>
+        <v>4046000000</v>
       </c>
       <c r="C2">
-        <v>4116800000</v>
+        <v>4089000000</v>
       </c>
       <c r="D2">
-        <v>4191700000</v>
+        <v>4178000000</v>
       </c>
       <c r="E2">
-        <v>4341602000</v>
+        <v>4331000000</v>
       </c>
       <c r="F2">
-        <v>4536600000</v>
+        <v>4526000000</v>
       </c>
       <c r="G2">
         <v>4577800000</v>
@@ -736,23 +847,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>-0.101</v>
+        <v>-0.1061</v>
       </c>
       <c r="C3">
-        <v>-0.1007</v>
+        <v>-0.1068</v>
       </c>
       <c r="D3">
-        <v>-0.0539</v>
+        <v>-0.0569</v>
       </c>
       <c r="E3">
-        <v>0.1982</v>
+        <v>0.1953</v>
       </c>
       <c r="F3">
-        <v>0.5264</v>
+        <v>0.5228</v>
       </c>
       <c r="G3">
         <v>0.6761</v>
@@ -858,23 +969,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>2329800000</v>
+        <v>2279000000</v>
       </c>
       <c r="C4">
-        <v>2413500000</v>
+        <v>2390000000</v>
       </c>
       <c r="D4">
-        <v>2420500000</v>
+        <v>2376000000</v>
       </c>
       <c r="E4">
-        <v>2795200000</v>
+        <v>2654000000</v>
       </c>
       <c r="F4">
-        <v>2962500000</v>
+        <v>2734000000</v>
       </c>
       <c r="G4">
         <v>3250100000</v>
@@ -980,23 +1091,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1748400000</v>
+        <v>1767000000</v>
       </c>
       <c r="C5">
-        <v>1703300000</v>
+        <v>1698000000</v>
       </c>
       <c r="D5">
-        <v>1771200000</v>
+        <v>1801000000</v>
       </c>
       <c r="E5">
-        <v>1546402000</v>
+        <v>1677000000</v>
       </c>
       <c r="F5">
-        <v>1574100000</v>
+        <v>1792000000</v>
       </c>
       <c r="G5">
         <v>1327700000</v>
@@ -1102,23 +1213,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>174900000</v>
+        <v>175000000</v>
       </c>
       <c r="C6">
-        <v>162600000</v>
+        <v>163000000</v>
       </c>
       <c r="D6">
-        <v>142300000</v>
+        <v>142000000</v>
       </c>
       <c r="E6">
-        <v>267200000</v>
+        <v>254000000</v>
       </c>
       <c r="F6">
-        <v>152100000</v>
+        <v>153000000</v>
       </c>
       <c r="G6">
         <v>147700000</v>
@@ -1224,8 +1335,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>1017300000</v>
@@ -1240,7 +1351,7 @@
         <v>1082900000</v>
       </c>
       <c r="F7">
-        <v>1055000000</v>
+        <v>985000000</v>
       </c>
       <c r="G7">
         <v>1204800000</v>
@@ -1346,8 +1457,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>560099900</v>
@@ -1468,8 +1579,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>152000000</v>
@@ -1509,8 +1620,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>153200000</v>
@@ -1631,23 +1742,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>-132600000</v>
+        <v>270000000</v>
       </c>
       <c r="C11">
-        <v>-159400000</v>
+        <v>-56000000</v>
       </c>
       <c r="D11">
-        <v>-179900000</v>
+        <v>-9000000</v>
       </c>
       <c r="E11">
-        <v>-126300000</v>
+        <v>597000000</v>
       </c>
       <c r="F11">
-        <v>-157700000</v>
+        <v>252000000</v>
       </c>
       <c r="G11">
         <v>-171300000</v>
@@ -1753,23 +1864,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>427500000</v>
+        <v>428000000</v>
       </c>
       <c r="C12">
-        <v>389300000</v>
+        <v>389000000</v>
       </c>
       <c r="D12">
-        <v>527500000</v>
+        <v>528000000</v>
       </c>
       <c r="E12">
-        <v>-203900100</v>
+        <v>-204000000</v>
       </c>
       <c r="F12">
-        <v>199900000</v>
+        <v>200000000</v>
       </c>
       <c r="G12">
         <v>-219100000</v>
@@ -1875,23 +1986,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>73200000</v>
+        <v>73000000</v>
       </c>
       <c r="C13">
-        <v>75400000</v>
+        <v>75000000</v>
       </c>
       <c r="D13">
-        <v>128300000</v>
+        <v>128000000</v>
       </c>
       <c r="E13">
-        <v>59900000</v>
+        <v>60000000</v>
       </c>
       <c r="F13">
-        <v>-111600000</v>
+        <v>-112000000</v>
       </c>
       <c r="G13">
         <v>60100000</v>
@@ -1997,8 +2108,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>354300000</v>
@@ -2119,8 +2230,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2142,8 +2253,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="AE16">
         <v>100000</v>
@@ -2174,23 +2285,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>354300000</v>
+        <v>354000000</v>
       </c>
       <c r="C17">
-        <v>313900000</v>
+        <v>314000000</v>
       </c>
       <c r="D17">
-        <v>399200000</v>
+        <v>399000000</v>
       </c>
       <c r="E17">
-        <v>-263799900</v>
+        <v>-264000000</v>
       </c>
       <c r="F17">
-        <v>311500000</v>
+        <v>312000000</v>
       </c>
       <c r="G17">
         <v>-279200000</v>
@@ -2296,8 +2407,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0.29</v>
@@ -2418,8 +2529,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0.29</v>
@@ -2540,23 +2651,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>1212500000</v>
+        <v>1213000000</v>
       </c>
       <c r="C20">
-        <v>1212300000</v>
+        <v>1212000000</v>
       </c>
       <c r="D20">
-        <v>1210500000</v>
+        <v>1211000000</v>
       </c>
       <c r="E20">
-        <v>1208800000</v>
+        <v>1209000000</v>
       </c>
       <c r="F20">
-        <v>1209300000</v>
+        <v>1209000000</v>
       </c>
       <c r="G20">
         <v>1208800000</v>
@@ -2662,23 +2773,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>1218100000</v>
+        <v>1218000000</v>
       </c>
       <c r="C21">
-        <v>1217100000</v>
+        <v>1217000000</v>
       </c>
       <c r="D21">
-        <v>1213100000</v>
+        <v>1213000000</v>
       </c>
       <c r="E21">
-        <v>1208800000</v>
+        <v>1209000000</v>
       </c>
       <c r="F21">
-        <v>1212600000</v>
+        <v>1213000000</v>
       </c>
       <c r="G21">
         <v>1208800000</v>
@@ -2784,23 +2895,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.4287</v>
+        <v>0.4367</v>
       </c>
       <c r="C22">
-        <v>0.4137</v>
+        <v>0.4153</v>
       </c>
       <c r="D22">
-        <v>0.4225</v>
+        <v>0.4311</v>
       </c>
       <c r="E22">
-        <v>0.3562</v>
+        <v>0.3872</v>
       </c>
       <c r="F22">
-        <v>0.347</v>
+        <v>0.3959</v>
       </c>
       <c r="G22">
         <v>0.29</v>
@@ -2906,23 +3017,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.1373</v>
+        <v>0.1384</v>
       </c>
       <c r="C23">
-        <v>0.1333</v>
+        <v>0.1342</v>
       </c>
       <c r="D23">
-        <v>0.1688</v>
+        <v>0.1693</v>
       </c>
       <c r="E23">
         <v>-0.0179</v>
       </c>
       <c r="F23">
-        <v>0.0788</v>
+        <v>0.079</v>
       </c>
       <c r="G23">
         <v>-0.0104</v>
@@ -3028,23 +3139,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.1048</v>
+        <v>0.1058</v>
       </c>
       <c r="C24">
-        <v>0.0946</v>
+        <v>0.0951</v>
       </c>
       <c r="D24">
-        <v>0.1258</v>
+        <v>0.1264</v>
       </c>
       <c r="E24">
-        <v>-0.047</v>
+        <v>-0.0471</v>
       </c>
       <c r="F24">
-        <v>0.0441</v>
+        <v>0.0442</v>
       </c>
       <c r="G24">
         <v>-0.0479</v>
@@ -3150,23 +3261,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>0.08690000000000001</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="C25">
-        <v>0.0762</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="D25">
-        <v>0.09520000000000001</v>
+        <v>0.0955</v>
       </c>
       <c r="E25">
-        <v>-0.0608</v>
+        <v>-0.061</v>
       </c>
       <c r="F25">
-        <v>0.0687</v>
+        <v>0.0689</v>
       </c>
       <c r="G25">
         <v>-0.061</v>
@@ -3272,23 +3383,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>1259600000</v>
+        <v>1281000000</v>
       </c>
       <c r="C26">
-        <v>1271000000</v>
+        <v>1281000000</v>
       </c>
       <c r="D26">
-        <v>1443400000</v>
+        <v>1484000000</v>
       </c>
       <c r="E26">
-        <v>672202400</v>
+        <v>1178000000</v>
       </c>
       <c r="F26">
-        <v>1374700000</v>
+        <v>1671000000</v>
       </c>
       <c r="G26">
         <v>1269300000</v>
@@ -3394,8 +3505,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>560099900</v>
@@ -3516,8 +3627,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>354300000</v>
@@ -3638,23 +3749,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>354300000</v>
+        <v>354000000</v>
       </c>
       <c r="C29">
-        <v>313900000</v>
+        <v>314000000</v>
       </c>
       <c r="D29">
-        <v>399200000</v>
+        <v>399000000</v>
       </c>
       <c r="E29">
-        <v>-263800200</v>
+        <v>-264000000</v>
       </c>
       <c r="F29">
-        <v>311500000</v>
+        <v>312000000</v>
       </c>
       <c r="G29">
         <v>-279200000</v>
@@ -3760,8 +3871,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0.2922</v>
@@ -3882,8 +3993,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0.2909</v>
@@ -4004,8 +4115,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0.2922</v>
@@ -4126,8 +4237,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>0.2909</v>
@@ -4248,8 +4359,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>1218100000</v>
@@ -4370,23 +4481,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>0.3089</v>
+        <v>0.3166</v>
       </c>
       <c r="C35">
-        <v>0.3087</v>
+        <v>0.3133</v>
       </c>
       <c r="D35">
-        <v>0.3443</v>
+        <v>0.3552</v>
       </c>
       <c r="E35">
-        <v>0.1548</v>
+        <v>0.272</v>
       </c>
       <c r="F35">
-        <v>0.303</v>
+        <v>0.3692</v>
       </c>
       <c r="G35">
         <v>0.2773</v>
@@ -4492,23 +4603,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>0.2131</v>
+        <v>0.2148</v>
       </c>
       <c r="C36">
-        <v>0.1951</v>
+        <v>0.1963</v>
       </c>
       <c r="D36">
-        <v>0.2717</v>
+        <v>0.2725</v>
       </c>
       <c r="E36">
-        <v>0.1205</v>
+        <v>0.1208</v>
       </c>
       <c r="F36">
-        <v>0.2394</v>
+        <v>0.2399</v>
       </c>
       <c r="G36">
         <v>0.1222</v>
